--- a/data/SeansProducts.xlsx
+++ b/data/SeansProducts.xlsx
@@ -4,11 +4,11 @@
   <x:fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <x:bookViews>
-    <x:workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <x:sheet name="Results" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Results" sheetId="5" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="122211"/>
@@ -75,7 +75,7 @@
     <x:t>https://www.microcenter.com/product/624593/asus-b550-f-rog-strix-gaming-amd-am4-atx-motherboard</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.newegg.com/asus-tuf-gaming-b550-plus/p/N82E16813119348</x:t>
+    <x:t>https://www.newegg.com/asus-rog-strix-b550-f-gaming/p/N82E16813119312?Description=192876749692&amp;cm_re=192876749692-_-13-119-312-_-Product</x:t>
   </x:si>
   <x:si>
     <x:t>329.99</x:t>
@@ -90,10 +90,10 @@
     <x:t>https://www.microcenter.com/product/608318/amd-ryzen-7-3700x-matisse-36ghz-8-core-am4-boxed-processor-with-wraith-prism-cooler</x:t>
   </x:si>
   <x:si>
-    <x:t>310.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.newegg.com/intel-core-i7-10700k-core-i7-10th-gen/p/N82E16819118183</x:t>
+    <x:t>309.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.newegg.com/amd-ryzen-7-3700x/p/N82E16819113567?Description=730143309974&amp;cm_re=730143309974-_-19-113-567-_-Product</x:t>
   </x:si>
   <x:si>
     <x:t>399.99</x:t>
@@ -114,7 +114,7 @@
     <x:t>https://www.microcenter.com/product/628177/samsung-980-pro-ssd-1tb-(mz-v8p1t0b)-m2-nvme-interface-pcie-gen-4x4-internal-solid-state-drive-with-v-nand-3-bit-mlc-technology,-2280</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.newegg.com/samsung-1tb-980-pro/p/N82E16820147790?Description=887276404288&amp;cm_re=887276404288-_-20-147-790-_-Product&amp;quicklink=true</x:t>
+    <x:t>https://www.newegg.com/neo-forza-512gb-nfp075/p/0D9-007T-00025</x:t>
   </x:si>
   <x:si>
     <x:t>144.99</x:t>
@@ -132,7 +132,7 @@
     <x:t>149.99</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.newegg.com/corsair-rmx-series-rm850x-cp-9020180-na-850w/p/N82E16817139234?Description=843591035187&amp;cm_re=843591035187-_-17-139-234-_-Product</x:t>
+    <x:t>https://www.newegg.com/evga-supernova-850-g5-220-g5-0850-x1-850w/p/N82E16817438161</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -194,7 +194,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -203,30 +203,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -241,10 +217,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -575,7 +551,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="A15" sqref="A15 A15:A15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -587,7 +563,7 @@
     <x:col min="4" max="4" width="11.332031" style="6" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="16.21875" style="6" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="15.109375" style="6" bestFit="1" customWidth="1"/>
-    <x:col min="7" max="7" width="9.140625" style="6" customWidth="1"/>
+    <x:col min="7" max="7" width="9.109375" style="6" customWidth="1"/>
     <x:col min="8" max="8" width="11.332031" style="6" bestFit="1" customWidth="1"/>
     <x:col min="9" max="9" width="12" style="6" bestFit="1" customWidth="1"/>
   </x:cols>
@@ -677,17 +653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:J6"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="L23" sqref="L23 L23:L23"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A1" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -719,7 +697,7 @@
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A2" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -745,7 +723,7 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:10">
+    <x:row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A3" s="6" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -771,7 +749,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A4" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -797,7 +775,7 @@
         <x:v>28</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A5" s="6" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -823,7 +801,7 @@
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10">
+    <x:row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <x:c r="A6" s="6" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -849,6 +827,7 @@
         <x:v>38</x:v>
       </x:c>
     </x:row>
+    <x:row r="23" spans="1:12"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
